--- a/CAW.xlsx
+++ b/CAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE134C90-A66C-4A41-AE81-683F2AB5D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86E22A-043F-410B-B294-D4E853772A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="6966" windowWidth="11688" windowHeight="7578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2994" yWindow="5142" windowWidth="11688" windowHeight="7578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -536,7 +536,7 @@
       <c r="D7" s="1">
         <v>6.99</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -577,6 +577,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAW.xlsx
+++ b/CAW.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF86E22A-043F-410B-B294-D4E853772A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A0748-79FB-443F-8EEC-82734560A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2994" yWindow="5142" windowWidth="11688" windowHeight="7578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4506" yWindow="3414" windowWidth="11688" windowHeight="7578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Cost Accounting Worksheet</t>
   </si>
@@ -97,6 +108,24 @@
   </si>
   <si>
     <t>https://www.servocity.com/5mm-shaft-stainless-steel-50mm-length/</t>
+  </si>
+  <si>
+    <t>2mm Pitch GT2 Timing Belt</t>
+  </si>
+  <si>
+    <t>3423-0006-0088</t>
+  </si>
+  <si>
+    <t>https://www.servocity.com/2mm-pitch-gt2-timing-belt-6mm-width-88mm-pitch-length-44-tooth/</t>
+  </si>
+  <si>
+    <t>3/4" chrome steel ball bearing</t>
+  </si>
+  <si>
+    <t>https://a.co/d/1f6xndt</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -438,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -450,12 +479,12 @@
     <col min="2" max="2" width="13.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -469,10 +498,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -485,11 +517,15 @@
       <c r="D4" s="1">
         <v>9.6199999999999992</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1">
+        <f>D4*C4</f>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -502,11 +538,15 @@
       <c r="D5" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E11" si="0">D5*C5</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -519,11 +559,15 @@
       <c r="D6" s="1">
         <v>1.84</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.84</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -536,11 +580,15 @@
       <c r="D7" s="1">
         <v>6.99</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>13.98</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -553,11 +601,15 @@
       <c r="D8" s="1">
         <v>3.99</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.99</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -570,14 +622,69 @@
       <c r="D9" s="1">
         <v>1.59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.59</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(E4:E14)</f>
+        <v>42.680000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAW.xlsx
+++ b/CAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25A0748-79FB-443F-8EEC-82734560A5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6337E264-1D50-49EF-847B-889911C453ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4506" yWindow="3414" windowWidth="11688" windowHeight="7578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="14478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Cost Accounting Worksheet</t>
   </si>
@@ -126,6 +126,54 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Rubber Bumper Feet </t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/550?gQT=1</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3316</t>
+  </si>
+  <si>
+    <t>Adafruit VL6180X Time of Flight Distance Ranging Sensor</t>
+  </si>
+  <si>
+    <t>Panel Mount 10K potentiometer (Breadboard Friendly) - 10K Linear</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/562</t>
+  </si>
+  <si>
+    <t>Anodized Aluminum Machined Knob - Black - 20mm Diameter</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5527</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4219</t>
+  </si>
+  <si>
+    <t>Slide Potentiometer with Knob - 75mm Long - 10KΩ</t>
+  </si>
+  <si>
+    <t>Rugged Metal On/Off Switch with White LED Ring - 16mm</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/917</t>
+  </si>
+  <si>
+    <t>Rugged Metal Pushbutton with White LED Ring - 16mm White Momentary</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/558</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/1152</t>
+  </si>
+  <si>
+    <t>Arcade Button Quick-Connect Wire Pairs - 0.11" (10 pack)</t>
   </si>
 </sst>
 </file>
@@ -467,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -539,7 +587,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E11" si="0">D5*C5</f>
+        <f t="shared" ref="E5:E16" si="0">D5*C5</f>
         <v>2.1800000000000002</v>
       </c>
       <c r="F5" t="s">
@@ -669,22 +717,170 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>917</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>558</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>14.850000000000001</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1">
-        <f>SUM(E4:E14)</f>
-        <v>42.680000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="1"/>
+      <c r="D23" s="1">
+        <f>SUM(E4:E18)</f>
+        <v>62.480000000000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.95</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26*C26</f>
+        <v>0.95</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="E27" s="1">
+        <f>D27*C27</f>
+        <v>27.9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="E28" s="1">
+        <f>D28*C28</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="E29" s="1">
+        <f>D29*C29</f>
+        <v>8.8500000000000014</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="E30" s="1">
+        <f>D30*C30</f>
+        <v>2.95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{56C1AAAD-8D9A-4DA5-9665-B609B7178CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAW.xlsx
+++ b/CAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6337E264-1D50-49EF-847B-889911C453ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561362A2-C104-42E4-9213-622B1A6D991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="14478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Cost Accounting Worksheet</t>
   </si>
@@ -134,30 +134,6 @@
     <t>https://www.adafruit.com/product/550?gQT=1</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/3316</t>
-  </si>
-  <si>
-    <t>Adafruit VL6180X Time of Flight Distance Ranging Sensor</t>
-  </si>
-  <si>
-    <t>Panel Mount 10K potentiometer (Breadboard Friendly) - 10K Linear</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/562</t>
-  </si>
-  <si>
-    <t>Anodized Aluminum Machined Knob - Black - 20mm Diameter</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/5527</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/4219</t>
-  </si>
-  <si>
-    <t>Slide Potentiometer with Knob - 75mm Long - 10KΩ</t>
-  </si>
-  <si>
     <t>Rugged Metal On/Off Switch with White LED Ring - 16mm</t>
   </si>
   <si>
@@ -174,6 +150,24 @@
   </si>
   <si>
     <t>Arcade Button Quick-Connect Wire Pairs - 0.11" (10 pack)</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5396</t>
+  </si>
+  <si>
+    <t>Adafruit VL53L4CD Time of Flight Distance Sensor</t>
+  </si>
+  <si>
+    <t>High-Strength 316 Stainless Steel Socket Head Screw, M4 x 0.70 mm Thread, 10 mm Long</t>
+  </si>
+  <si>
+    <t>High-Strength Steel Nylon-Insert Locknut Class 10, Zinc Plated, M4 x 0.7 mm Thread, 5 mm High</t>
+  </si>
+  <si>
+    <t>Medium-Strength Steel Nylon-Insert Locknut Class 8, Zinc-Plated, M2 x 0.4 mm Thread Size</t>
+  </si>
+  <si>
+    <t>High-Strength 316 Stainless Steel Socket Head Screw, M2 x 0.40 mm Thread, 8 mm Long</t>
   </si>
 </sst>
 </file>
@@ -515,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -587,7 +581,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E16" si="0">D5*C5</f>
+        <f t="shared" ref="E5:E14" si="0">D5*C5</f>
         <v>2.1800000000000002</v>
       </c>
       <c r="F5" t="s">
@@ -719,7 +713,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>917</v>
@@ -735,12 +729,12 @@
         <v>4.95</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>558</v>
@@ -756,131 +750,133 @@
         <v>14.850000000000001</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>5396</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14.95</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15*C15</f>
+        <v>0.95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16*C16</f>
+        <v>4.95</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="1">
         <f>SUM(E4:E18)</f>
-        <v>62.480000000000011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0.95</v>
-      </c>
-      <c r="E26" s="1">
-        <f>D26*C26</f>
-        <v>0.95</v>
-      </c>
-      <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>13.95</v>
-      </c>
-      <c r="E27" s="1">
-        <f>D27*C27</f>
-        <v>27.9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="E28" s="1">
-        <f>D28*C28</f>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.95</v>
-      </c>
-      <c r="E29" s="1">
-        <f>D29*C29</f>
-        <v>8.8500000000000014</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2.95</v>
-      </c>
-      <c r="E30" s="1">
-        <f>D30*C30</f>
-        <v>2.95</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
-      </c>
+        <v>98.280000000000015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
     <hyperlink ref="F13" r:id="rId3" xr:uid="{56C1AAAD-8D9A-4DA5-9665-B609B7178CF6}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{C8F5265F-C4FC-4B47-A191-882872824E5F}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{B1268CA3-68D3-4790-9FF0-85B7569ADB7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CAW.xlsx
+++ b/CAW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\ball_on_beam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561362A2-C104-42E4-9213-622B1A6D991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D088D35A-3454-4D6E-AA40-711FBCCB5236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
-  <si>
-    <t>Cost Accounting Worksheet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Item</t>
   </si>
@@ -128,12 +125,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Rubber Bumper Feet </t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/550?gQT=1</t>
-  </si>
-  <si>
     <t>Rugged Metal On/Off Switch with White LED Ring - 16mm</t>
   </si>
   <si>
@@ -158,26 +149,61 @@
     <t>Adafruit VL53L4CD Time of Flight Distance Sensor</t>
   </si>
   <si>
-    <t>High-Strength 316 Stainless Steel Socket Head Screw, M4 x 0.70 mm Thread, 10 mm Long</t>
-  </si>
-  <si>
-    <t>High-Strength Steel Nylon-Insert Locknut Class 10, Zinc Plated, M4 x 0.7 mm Thread, 5 mm High</t>
-  </si>
-  <si>
-    <t>Medium-Strength Steel Nylon-Insert Locknut Class 8, Zinc-Plated, M2 x 0.4 mm Thread Size</t>
-  </si>
-  <si>
-    <t>High-Strength 316 Stainless Steel Socket Head Screw, M2 x 0.40 mm Thread, 8 mm Long</t>
+    <t>Adafruit USB Type C Power Delivery Dummy Breakout - I2C or Fixed - HUSB238</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5807</t>
+  </si>
+  <si>
+    <t>Adafruit TMC2209 Stepper Motor Driver Breakout Board</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/6121</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Power Transfer</t>
+  </si>
+  <si>
+    <t>Miscelaneous</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>personal stock</t>
+  </si>
+  <si>
+    <t>Assorted M2 M3 M4 M5 Nuts and Bolts</t>
+  </si>
+  <si>
+    <t>SYD-517</t>
+  </si>
+  <si>
+    <t>https://a.co/d/aZ3D2kg</t>
+  </si>
+  <si>
+    <t>Ball Beam Cost Accounting Worksheet</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +227,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,17 +274,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -509,375 +574,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="E4" s="1">
-        <f>D4*C4</f>
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E14" si="0">D5*C5</f>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6121</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.84</v>
+      <c r="D6">
+        <v>8.9499999999999993</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="E6:E11" si="0">D6*C6</f>
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5807</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.99</v>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5.95</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>13.98</v>
+        <v>5.95</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5396</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>3.99</v>
+        <v>14.95</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>3.99</v>
+        <v>29.9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="9">
+        <v>917</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1.59</v>
+        <v>4.95</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>1.59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>4.95</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>558</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.49</v>
+        <v>4.95</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>1.49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>14.850000000000001</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1152</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>7.99</v>
+        <v>4.95</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>7.99</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>917</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>4.95</v>
-      </c>
-      <c r="F12" t="s">
+        <v>9.9</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>558</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>14.850000000000001</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>5396</v>
+        <v>5</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>14.95</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0.95</v>
+      <c r="D15" s="1">
+        <v>2.1800000000000002</v>
       </c>
       <c r="E15" s="1">
-        <f>D15*C15</f>
-        <v>0.95</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>4.95</v>
+        <v>1.84</v>
       </c>
       <c r="E16" s="1">
         <f>D16*C16</f>
-        <v>4.95</v>
+        <v>1.84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19*C19</f>
+        <v>13.98</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1">
-        <f>SUM(E4:E18)</f>
-        <v>98.280000000000015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20*C20</f>
+        <v>3.99</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="E21" s="1">
+        <f>D21*C21</f>
+        <v>1.59</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="E22" s="1">
+        <f>D22*C22</f>
+        <v>1.49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>24.99</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="E26" s="1">
+        <f>D26*C26</f>
+        <v>7.99</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="8">
+        <f>SUM(E6:E26)</f>
+        <v>105.38</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
-    <hyperlink ref="F13" r:id="rId3" xr:uid="{56C1AAAD-8D9A-4DA5-9665-B609B7178CF6}"/>
-    <hyperlink ref="F14" r:id="rId4" xr:uid="{C8F5265F-C4FC-4B47-A191-882872824E5F}"/>
-    <hyperlink ref="F16" r:id="rId5" xr:uid="{B1268CA3-68D3-4790-9FF0-85B7569ADB7C}"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{F2EBCD99-D5D1-4B3B-AA92-99CFB77CFCC0}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{84B6E2EB-DDDA-4F65-9772-A64E3C60E7B2}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{56C1AAAD-8D9A-4DA5-9665-B609B7178CF6}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{C8F5265F-C4FC-4B47-A191-882872824E5F}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{B1268CA3-68D3-4790-9FF0-85B7569ADB7C}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{C5048542-DD65-41E0-9BB6-A4FEB189901D}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{A10E21D0-BF94-4632-8260-E9BD2944E36D}"/>
+    <hyperlink ref="F26" r:id="rId8" xr:uid="{9D092944-A19D-40FA-8C67-B5BACF0E4326}"/>
+    <hyperlink ref="F22" r:id="rId9" xr:uid="{EA3F8127-7F02-421F-AB86-34106FB56F8B}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{1E9B2578-0A98-4EAF-8581-84433716DF26}"/>
+    <hyperlink ref="F16" r:id="rId11" xr:uid="{38A43348-6552-4432-AF06-7BD4D96C2BEA}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{9A3CA64D-6809-4C93-8A19-DF2815FBEECD}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{C7FCC586-F3D3-411D-91B1-8CCAD99731C2}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{E9FB1326-5DB7-4572-9D37-EB3A48F51937}"/>
+    <hyperlink ref="F25" r:id="rId15" xr:uid="{3812573F-6739-4852-A246-2440E5099252}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>